--- a/student habits vs academic performance - dashboard.xlsx
+++ b/student habits vs academic performance - dashboard.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBAA0E1-BE0A-483F-B54A-37E7436F7819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A9DB75-D77D-41CD-95CB-3532C03CC189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z/lOyfOCMg5FbMLQWiRrwiKPMujPn8/K4x9JXaBaiUICc1hI/8oi/13k5sHB9h3Ut5mPF1X+aJppCnQyAaXV7A==" workbookSaltValue="rYjUHsF7FR9ahxnNG0X4ow==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3951,27 +3952,27 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="205">
+  <dxfs count="97">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <border>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -4019,27 +4020,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
       </border>
     </dxf>
     <dxf>
@@ -4113,48 +4093,6 @@
     </dxf>
     <dxf>
       <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4202,25 +4140,11 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4244,75 +4168,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="6" tint="0.59999389629810485"/>
@@ -4325,733 +4180,6 @@
           <bgColor theme="6" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -5648,213 +4776,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6063,11 +4984,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="1" xr9:uid="{3E03E358-4D42-4BE9-97F7-ABAF97160A82}">
-      <tableStyleElement type="wholeTable" dxfId="204"/>
+      <tableStyleElement type="wholeTable" dxfId="96"/>
     </tableStyle>
     <tableStyle name="Estilo de Segmentação de Dados 2" pivot="0" table="0" count="4" xr9:uid="{FC85D4DE-241C-4734-BA1F-B5A34AB5C42A}">
-      <tableStyleElement type="wholeTable" dxfId="203"/>
-      <tableStyleElement type="headerRow" dxfId="202"/>
+      <tableStyleElement type="wholeTable" dxfId="95"/>
+      <tableStyleElement type="headerRow" dxfId="94"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -6121,7 +5042,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[student habits vs academic performance.xlsx]pivot table!Tabela dinâmica2</c:name>
+    <c:name>[student habits vs academic performance - dashboard.xlsx]pivot table!Tabela dinâmica2</c:name>
     <c:fmtId val="14"/>
   </c:pivotSource>
   <c:chart>
@@ -7012,7 +5933,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[student habits vs academic performance.xlsx]pivot table!Tabela dinâmica3</c:name>
+    <c:name>[student habits vs academic performance - dashboard.xlsx]pivot table!Tabela dinâmica3</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -7717,7 +6638,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[student habits vs academic performance.xlsx]pivot table!Tabela dinâmica4</c:name>
+    <c:name>[student habits vs academic performance - dashboard.xlsx]pivot table!Tabela dinâmica4</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -8531,7 +7452,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[student habits vs academic performance.xlsx]pivot table!Tabela dinâmica5</c:name>
+    <c:name>[student habits vs academic performance - dashboard.xlsx]pivot table!Tabela dinâmica5</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -32686,6 +31607,453 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F7D8CB3-DB25-4ABE-B296-8C7F99B40E98}" name="Tabela dinâmica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F24:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="17">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="16" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Média de exam_score" fld="15" subtotal="average" baseField="3" baseItem="1" numFmtId="2"/>
+    <dataField name="Contagem de student_id" fld="0" subtotal="count" baseField="0" baseItem="1"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="8">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight8" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{615ADF2F-4CEA-4F37-950A-A6A222CDF470}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A23:D26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="16"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Média de study_hours_per_day" fld="3" subtotal="average" baseField="16" baseItem="0" numFmtId="2"/>
+    <dataField name="Média de social_media_hours" fld="4" subtotal="average" baseField="16" baseItem="0" numFmtId="2"/>
+    <dataField name="Média de netflix_hours" fld="5" subtotal="average" baseField="16" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="12">
+    <format dxfId="20">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="16" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="16" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="6">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="16" count="2">
+              <x v="0"/>
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="16" count="2">
+              <x v="0"/>
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="16" count="2">
+              <x v="0"/>
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="16" count="2">
+              <x v="0"/>
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="6">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="16" count="2">
+              <x v="0"/>
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="7">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="16" count="2">
+              <x v="0"/>
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="9">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight8" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5A3967C-9623-474D-B912-F109C944859D}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="I8:K19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -32801,26 +32169,26 @@
     <dataField name="Média de attendance_percentage" fld="7" subtotal="average" baseField="13" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="128">
+    <format dxfId="38">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="127">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="36">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -32830,26 +32198,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="32">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="120">
+    <format dxfId="30">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -32859,26 +32227,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="26">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="24">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="112">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -32921,7 +32289,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{474033A2-54FD-423D-BFB5-0126AC7F201C}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="E8:G17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -33031,16 +32399,16 @@
     <dataField name="Média de study_hours_per_day" fld="3" subtotal="average" baseField="4" baseItem="1" numFmtId="2"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="146">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="54">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="143">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="8">
@@ -33056,10 +32424,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="142">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -33069,16 +32437,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="140">
+    <format dxfId="50">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="138">
+    <format dxfId="48">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="8">
@@ -33094,10 +32462,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -33107,16 +32475,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="134">
+    <format dxfId="44">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="42">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="8">
@@ -33132,10 +32500,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="130">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="129">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -33178,7 +32546,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A54FA75-9B20-4D28-9EE0-98BC582D51C4}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A8:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -33292,16 +32660,16 @@
     <dataField name="Média de attendance_percentage" fld="7" subtotal="average" baseField="3" baseItem="1" numFmtId="2"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="164">
+    <format dxfId="74">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="163">
+    <format dxfId="73">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="162">
+    <format dxfId="72">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="161">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="9">
@@ -33318,10 +32686,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="160">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="159">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -33331,16 +32699,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="158">
+    <format dxfId="68">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="157">
+    <format dxfId="67">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="156">
+    <format dxfId="66">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="9">
@@ -33357,10 +32725,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="154">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -33370,16 +32738,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="152">
+    <format dxfId="62">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="150">
+    <format dxfId="60">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="149">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="9">
@@ -33396,10 +32764,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="148">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="147">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -33425,453 +32793,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight8" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F7D8CB3-DB25-4ABE-B296-8C7F99B40E98}" name="Tabela dinâmica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F24:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="17">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="16" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Média de exam_score" fld="15" subtotal="average" baseField="3" baseItem="1" numFmtId="2"/>
-    <dataField name="Contagem de student_id" fld="0" subtotal="count" baseField="0" baseItem="1"/>
-  </dataFields>
-  <formats count="9">
-    <format dxfId="170">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="169">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="168">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="167">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="166">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="165">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="110">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="109">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="108">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight8" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{615ADF2F-4CEA-4F37-950A-A6A222CDF470}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A23:D26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="16"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Média de study_hours_per_day" fld="3" subtotal="average" baseField="16" baseItem="0" numFmtId="2"/>
-    <dataField name="Média de social_media_hours" fld="4" subtotal="average" baseField="16" baseItem="0" numFmtId="2"/>
-    <dataField name="Média de netflix_hours" fld="5" subtotal="average" baseField="16" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="12">
-    <format dxfId="182">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="181">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="180">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="179">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="16" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="178">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="177">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="176">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="175">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="174">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="173">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="16" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="172">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="171">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <conditionalFormats count="6">
-    <conditionalFormat priority="7">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="16" count="2">
-              <x v="0"/>
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="6">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="16" count="2">
-              <x v="0"/>
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="16" count="2">
-              <x v="0"/>
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="16" count="2">
-              <x v="0"/>
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="16" count="2">
-              <x v="0"/>
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="16" count="2">
-              <x v="0"/>
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="9">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -33977,26 +32898,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{398D69D2-1F62-4B7E-85DB-ACCD03B19618}" name="Tabela1" displayName="Tabela1" ref="A7:Q1007" totalsRowShown="0" headerRowDxfId="201" dataDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{398D69D2-1F62-4B7E-85DB-ACCD03B19618}" name="Tabela1" displayName="Tabela1" ref="A7:Q1007" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="A7:Q1007" xr:uid="{398D69D2-1F62-4B7E-85DB-ACCD03B19618}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{14F900D2-9BD7-4995-A725-B8FAFADDEE06}" name="student_id" dataDxfId="199"/>
-    <tableColumn id="2" xr3:uid="{B968D6AC-DADB-4E22-93F4-3E6C7D6813CB}" name="age" dataDxfId="198"/>
-    <tableColumn id="3" xr3:uid="{894E0603-84F7-4C65-A8E9-D284536D7331}" name="gender" dataDxfId="197"/>
-    <tableColumn id="4" xr3:uid="{5A77D492-52A9-4DFF-9D56-1E778FDD65E0}" name="study_hours_per_day" dataDxfId="196"/>
-    <tableColumn id="5" xr3:uid="{4FE6BF08-597E-4A97-B9F6-55A0A16A323B}" name="social_media_hours" dataDxfId="195"/>
-    <tableColumn id="6" xr3:uid="{FFC86B5D-BF9F-4B79-AA64-C2D1CBF678CA}" name="netflix_hours" dataDxfId="194"/>
-    <tableColumn id="7" xr3:uid="{6D281CD3-30FF-4506-99CF-4519D71B487A}" name="part_time_job" dataDxfId="193"/>
-    <tableColumn id="8" xr3:uid="{31F7C787-FB7D-4BA2-978B-69FFF2179077}" name="attendance_percentage" dataDxfId="192"/>
-    <tableColumn id="9" xr3:uid="{C36F22B3-3CAB-4E60-BA2B-572029C06192}" name="sleep_hours" dataDxfId="191"/>
-    <tableColumn id="10" xr3:uid="{83D1BF97-638A-4D71-AFFF-6F2BAA14E1B2}" name="diet_quality" dataDxfId="190"/>
-    <tableColumn id="11" xr3:uid="{EA75F5E4-8D69-45BF-B04B-A86737877679}" name="exercise_frequency" dataDxfId="189"/>
-    <tableColumn id="12" xr3:uid="{5A9DD63D-2820-44C5-A7A7-EF4D8132A791}" name="parental_education_level" dataDxfId="188"/>
-    <tableColumn id="13" xr3:uid="{4E62C72B-0798-4135-ABDB-E0F2F3A57B7B}" name="internet_quality" dataDxfId="187"/>
-    <tableColumn id="14" xr3:uid="{EFDB827D-4961-4195-A20B-0C5E3E14D457}" name="mental_health_rating" dataDxfId="186"/>
-    <tableColumn id="15" xr3:uid="{DD665179-9482-4081-BF24-7A96ECB33232}" name="extracurricular_participation" dataDxfId="185"/>
-    <tableColumn id="16" xr3:uid="{99446B31-E8B6-4262-8F0A-45FB52821A25}" name="exam_score" dataDxfId="184"/>
-    <tableColumn id="17" xr3:uid="{34EB6339-94A1-49AF-869A-7B16246871D9}" name="risk_group" dataDxfId="183">
+    <tableColumn id="1" xr3:uid="{14F900D2-9BD7-4995-A725-B8FAFADDEE06}" name="student_id" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{B968D6AC-DADB-4E22-93F4-3E6C7D6813CB}" name="age" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{894E0603-84F7-4C65-A8E9-D284536D7331}" name="gender" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{5A77D492-52A9-4DFF-9D56-1E778FDD65E0}" name="study_hours_per_day" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{4FE6BF08-597E-4A97-B9F6-55A0A16A323B}" name="social_media_hours" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{FFC86B5D-BF9F-4B79-AA64-C2D1CBF678CA}" name="netflix_hours" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{6D281CD3-30FF-4506-99CF-4519D71B487A}" name="part_time_job" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{31F7C787-FB7D-4BA2-978B-69FFF2179077}" name="attendance_percentage" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{C36F22B3-3CAB-4E60-BA2B-572029C06192}" name="sleep_hours" dataDxfId="83"/>
+    <tableColumn id="10" xr3:uid="{83D1BF97-638A-4D71-AFFF-6F2BAA14E1B2}" name="diet_quality" dataDxfId="82"/>
+    <tableColumn id="11" xr3:uid="{EA75F5E4-8D69-45BF-B04B-A86737877679}" name="exercise_frequency" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{5A9DD63D-2820-44C5-A7A7-EF4D8132A791}" name="parental_education_level" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{4E62C72B-0798-4135-ABDB-E0F2F3A57B7B}" name="internet_quality" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{EFDB827D-4961-4195-A20B-0C5E3E14D457}" name="mental_health_rating" dataDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{DD665179-9482-4081-BF24-7A96ECB33232}" name="extracurricular_participation" dataDxfId="77"/>
+    <tableColumn id="16" xr3:uid="{99446B31-E8B6-4262-8F0A-45FB52821A25}" name="exam_score" dataDxfId="76"/>
+    <tableColumn id="17" xr3:uid="{34EB6339-94A1-49AF-869A-7B16246871D9}" name="risk_group" dataDxfId="75">
       <calculatedColumnFormula>IF(P8 &lt; 60, "At Risk", "Safe")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -89022,9 +87943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AC5F9E-06B5-47EB-B3E5-9FD19D8A9177}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
